--- a/src/excelExportAndFileIO/FBBusiness.xlsx
+++ b/src/excelExportAndFileIO/FBBusiness.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\DBS_Awards-Accolades\src\excelExportAndFileIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B74CCB-C46B-4138-A056-B9B8B65A45D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC46C0D8-99E6-408F-8775-F43DDA25C194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{6EAA2BAC-62C4-464A-A4E3-7B57C98E2C3F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6EAA2BAC-62C4-464A-A4E3-7B57C98E2C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="tableOne" sheetId="1" r:id="rId1"/>
+    <sheet name="awardsName" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="38">
   <si>
     <t>Amalgam Holdings Pte Ltd</t>
   </si>
@@ -112,6 +113,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Euromoney</t>
+  </si>
+  <si>
+    <t>Global Finance</t>
+  </si>
+  <si>
+    <t>The Banker</t>
+  </si>
+  <si>
+    <t>Bank of the Year 2018</t>
+  </si>
+  <si>
+    <t>Best Bank in the World 2018</t>
+  </si>
+  <si>
+    <t>Awards For Excellence</t>
+  </si>
+  <si>
+    <t>World's Best Banks</t>
+  </si>
+  <si>
+    <t>World's Best Investment Banks and Derivatives Providers</t>
+  </si>
+  <si>
+    <t>World's Best Bank 2019</t>
   </si>
 </sst>
 </file>
@@ -128,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +169,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,11 +199,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -179,6 +237,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD2601E-FB6C-4C34-9539-9F50A0C29A78}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
@@ -618,4 +685,73 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D95EB3-7DC9-46E5-92B7-042E3B2B4811}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="4" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="4" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>